--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eAppAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D405D7-59B7-4B49-9AD7-5C744E4B53B1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{10D405D7-59B7-4B49-9AD7-5C744E4B53B1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="4155" windowWidth="16200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="TestData (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="ListValues" sheetId="3" r:id="rId4"/>
+    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
+    <sheet name="TestData" r:id="rId2" sheetId="2"/>
+    <sheet name="TestData (2)" r:id="rId3" sheetId="4"/>
+    <sheet name="ListValues" r:id="rId4" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="171">
   <si>
     <t>SLNo</t>
   </si>
@@ -538,12 +538,28 @@
   </si>
   <si>
     <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>$60,000</t>
+  </si>
+  <si>
+    <t>1988-12-08</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1995-01-01</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,82 +680,114 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="65">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -756,10 +804,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -794,7 +842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -846,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -957,21 +1005,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -988,7 +1036,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1040,16 +1088,16 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1057,8 +1105,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,19 +1144,19 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1116,9 +1164,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -1367,49 +1415,49 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:C7" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>P_Suffix</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:C8" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:C13" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:C13" type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:C16" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:C16" type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:C17" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:C17" type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:C3" type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>P_PlanofInsurance</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A15" ySplit="2"/>
+      <selection activeCell="D23" pane="bottomLeft" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1660,8 +1708,12 @@
       <c r="C16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -1884,8 +1936,12 @@
       <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -1897,8 +1953,12 @@
       <c r="C31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1910,8 +1970,12 @@
       <c r="C32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="28"/>
+      <c r="D32" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -1923,8 +1987,12 @@
       <c r="C33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -1936,8 +2004,12 @@
       <c r="C34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="30"/>
+      <c r="D34" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
@@ -1949,8 +2021,12 @@
       <c r="C35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -1962,38 +2038,42 @@
       <c r="C36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="32"/>
+      <c r="D36" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:E21" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:E21" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E20" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:E20" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:E17" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D17:E17" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:E28 D22:E22 D13:E13 D18:E18" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D24:E28 D22:E22 D13:E13 D18:E18" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:E12" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D12:E12" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -2001,11 +2081,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2482,6 +2562,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eAppAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{10D405D7-59B7-4B49-9AD7-5C744E4B53B1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D387725D-EAF8-454D-938B-FC41B95FB8EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4155" windowWidth="16200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
-    <sheet name="TestData" r:id="rId2" sheetId="2"/>
-    <sheet name="TestData (2)" r:id="rId3" sheetId="4"/>
-    <sheet name="ListValues" r:id="rId4" sheetId="3"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="TestData (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="ListValues" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="167">
   <si>
     <t>SLNo</t>
   </si>
@@ -537,29 +537,16 @@
     <t>300000</t>
   </si>
   <si>
-    <t>02/05/2018</t>
-  </si>
-  <si>
-    <t>$60,000</t>
-  </si>
-  <si>
-    <t>1988-12-08</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>1995-01-01</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>08/05/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,130 +667,82 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -820,10 +759,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -858,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -910,7 +849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1021,21 +960,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1052,7 +991,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1104,28 +1043,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1147,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1160,32 +1099,32 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -1207,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>133</v>
       </c>
@@ -1218,7 +1157,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1168,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1177,7 @@
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1188,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1197,7 @@
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -1280,14 +1219,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1237,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1248,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1342,7 +1281,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +1292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1373,7 +1312,7 @@
       </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1321,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1341,7 @@
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1350,7 @@
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>142</v>
       </c>
@@ -1420,7 +1359,7 @@
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
@@ -1431,52 +1370,52 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:C7" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>P_Suffix</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:C8" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:C13" type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:C13" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:C16" type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:C16" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:C17" type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:C17" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:C3" type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>P_PlanofInsurance</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A15" ySplit="2"/>
-      <selection activeCell="D23" pane="bottomLeft" sqref="D23"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
@@ -1506,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>155</v>
       </c>
@@ -1519,7 +1458,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>156</v>
       </c>
@@ -1537,7 +1476,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>156</v>
       </c>
@@ -1550,7 +1489,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>150</v>
       </c>
@@ -1567,7 +1506,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>150</v>
       </c>
@@ -1582,7 +1521,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>150</v>
       </c>
@@ -1597,7 +1536,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>150</v>
       </c>
@@ -1613,7 +1552,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>150</v>
       </c>
@@ -1631,7 +1570,7 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>150</v>
       </c>
@@ -1646,7 +1585,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>150</v>
       </c>
@@ -1663,7 +1602,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>150</v>
       </c>
@@ -1680,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>150</v>
       </c>
@@ -1694,10 +1633,10 @@
         <v>153</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>150</v>
       </c>
@@ -1714,7 +1653,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>150</v>
       </c>
@@ -1724,14 +1663,12 @@
       <c r="C16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="17"/>
+      <c r="E16" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>150</v>
       </c>
@@ -1748,7 +1685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>150</v>
       </c>
@@ -1765,7 +1702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>150</v>
       </c>
@@ -1782,7 +1719,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>150</v>
       </c>
@@ -1799,7 +1736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -1816,7 +1753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>150</v>
       </c>
@@ -1833,7 +1770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>150</v>
       </c>
@@ -1850,7 +1787,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>150</v>
       </c>
@@ -1867,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>150</v>
       </c>
@@ -1884,7 +1821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>150</v>
       </c>
@@ -1899,7 +1836,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>150</v>
       </c>
@@ -1914,7 +1851,7 @@
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
@@ -1929,7 +1866,7 @@
       </c>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>150</v>
       </c>
@@ -1942,7 +1879,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
@@ -1952,14 +1889,10 @@
       <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="18"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>150</v>
       </c>
@@ -1969,14 +1902,10 @@
       <c r="C31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="19"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>150</v>
       </c>
@@ -1986,14 +1915,10 @@
       <c r="C32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="20"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>150</v>
       </c>
@@ -2003,14 +1928,10 @@
       <c r="C33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="21"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>150</v>
       </c>
@@ -2020,14 +1941,10 @@
       <c r="C34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="22"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>150</v>
       </c>
@@ -2037,14 +1954,10 @@
       <c r="C35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="23"/>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>150</v>
       </c>
@@ -2054,57 +1967,53 @@
       <c r="C36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>47</v>
-      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:E21" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:E21" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:E20" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E20" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D17:E17" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:E17" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D24:E28 D22:E22 D13:E13 D18:E18" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:E28 D22:E22 D13:E13 D18:E18" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D12:E12" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:E12" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2133,7 +2042,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
@@ -2162,7 +2071,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>99</v>
       </c>
@@ -2191,7 +2100,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -2214,7 +2123,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>101</v>
       </c>
@@ -2237,7 +2146,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>102</v>
       </c>
@@ -2257,7 +2166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -2274,7 +2183,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -2288,7 +2197,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -2300,7 +2209,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
@@ -2309,7 +2218,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
@@ -2318,7 +2227,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
@@ -2327,7 +2236,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
@@ -2336,7 +2245,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
@@ -2345,7 +2254,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>61</v>
       </c>
@@ -2354,7 +2263,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>62</v>
       </c>
@@ -2363,7 +2272,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>63</v>
       </c>
@@ -2372,7 +2281,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>64</v>
       </c>
@@ -2381,7 +2290,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
@@ -2390,7 +2299,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
@@ -2399,7 +2308,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>67</v>
       </c>
@@ -2408,7 +2317,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
@@ -2417,7 +2326,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>69</v>
       </c>
@@ -2426,7 +2335,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
@@ -2435,149 +2344,149 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eAppAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D387725D-EAF8-454D-938B-FC41B95FB8EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{D387725D-EAF8-454D-938B-FC41B95FB8EB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="4160" windowWidth="16200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="TestData (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="ListValues" sheetId="3" r:id="rId4"/>
+    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
+    <sheet name="TestData" r:id="rId2" sheetId="2"/>
+    <sheet name="TestData (2)" r:id="rId3" sheetId="4"/>
+    <sheet name="ListValues" r:id="rId4" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="172">
   <si>
     <t>SLNo</t>
   </si>
@@ -541,12 +541,28 @@
   </si>
   <si>
     <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>$60,000</t>
+  </si>
+  <si>
+    <t>1988-12-08</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1995-01-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,82 +683,98 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -759,10 +791,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -797,7 +829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -849,7 +881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -960,21 +992,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -991,7 +1023,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1043,16 +1075,16 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1060,8 +1092,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1099,19 +1131,19 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1119,9 +1151,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1135,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -1370,49 +1402,49 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:C7" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>P_Suffix</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:C8" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:C13" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:C13" type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:C16" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:C16" type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:C17" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:C17" type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:C3" type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>P_PlanofInsurance</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <selection activeCell="E7" pane="bottomLeft" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1663,9 +1695,11 @@
       <c r="C16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="25" t="s">
-        <v>165</v>
+      <c r="D16" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1889,8 +1923,12 @@
       <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -1902,8 +1940,12 @@
       <c r="C31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
@@ -1915,8 +1957,12 @@
       <c r="C32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="28"/>
+      <c r="D32" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
@@ -1928,8 +1974,12 @@
       <c r="C33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
@@ -1941,8 +1991,12 @@
       <c r="C34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="30"/>
+      <c r="D34" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -1954,8 +2008,12 @@
       <c r="C35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
@@ -1967,38 +2025,42 @@
       <c r="C36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="32"/>
+      <c r="D36" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:E21" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:E21" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E20" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:E20" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:E17" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D17:E17" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:E28 D22:E22 D13:E13 D18:E18" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D24:E28 D22:E22 D13:E13 D18:E18" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:E12" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D12:E12" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -2006,11 +2068,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -2487,6 +2549,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eAppAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:100000_{D387725D-EAF8-454D-938B-FC41B95FB8EB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{C521E8ED-2246-41FE-B687-0BCE3A6B9341}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="4160" windowWidth="16200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="P_Yes_No">ListValues!$C$2:$C$3</definedName>
     <definedName name="Step">ListValues!$I$2:$I$18</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="188">
   <si>
     <t>SLNo</t>
   </si>
@@ -522,9 +522,6 @@
     <t>VerifyServerMessage</t>
   </si>
   <si>
-    <t>VerifyEnbaled</t>
-  </si>
-  <si>
     <t>VerifyVisible</t>
   </si>
   <si>
@@ -543,19 +540,70 @@
     <t>08/05/2018</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>$60,000</t>
   </si>
   <si>
     <t>1988-12-08</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>1995-01-01</t>
+  </si>
+  <si>
+    <t>TC#3</t>
+  </si>
+  <si>
+    <t>Samrat</t>
+  </si>
+  <si>
+    <t>Sinha</t>
+  </si>
+  <si>
+    <t>Start New Application</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>TC#4</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>CT10005346</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>VerifyValue</t>
+  </si>
+  <si>
+    <t>VerifyEnabled</t>
+  </si>
+  <si>
+    <t>Producer No</t>
+  </si>
+  <si>
+    <t>Substandard Ratings</t>
+  </si>
+  <si>
+    <t>Proposed Insured Date of Birth</t>
+  </si>
+  <si>
+    <t>Underwriting Class Quoted</t>
   </si>
 </sst>
 </file>
@@ -689,7 +737,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -749,20 +797,7 @@
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -1084,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1115,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1126,12 +1161,34 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C5" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
@@ -1145,7 +1202,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1431,11 +1488,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
-      <selection activeCell="E7" pane="bottomLeft" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="2"/>
+      <selection activeCell="G42" pane="bottomLeft" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,7 +1501,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="38.453125" collapsed="true"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="38.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1459,6 +1516,12 @@
       <c r="E1" s="3">
         <v>2</v>
       </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1476,6 +1539,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1489,6 +1558,10 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -1506,7 +1579,12 @@
       <c r="E4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
@@ -1520,6 +1598,10 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -1537,6 +1619,12 @@
       <c r="E6" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="F6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -1552,6 +1640,12 @@
         <v>153</v>
       </c>
       <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -1567,6 +1661,10 @@
         <v>128</v>
       </c>
       <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
@@ -1582,7 +1680,12 @@
       <c r="E9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -1595,12 +1698,17 @@
         <v>158</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
@@ -1616,6 +1724,10 @@
         <v>100</v>
       </c>
       <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -1633,6 +1745,12 @@
       <c r="E12" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="F12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -1650,6 +1768,12 @@
       <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
@@ -1665,7 +1789,13 @@
         <v>153</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1684,6 +1814,12 @@
       <c r="E15" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -1695,14 +1831,16 @@
       <c r="C16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="17"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>150</v>
       </c>
@@ -1718,8 +1856,14 @@
       <c r="E17" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>150</v>
       </c>
@@ -1735,8 +1879,14 @@
       <c r="E18" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>150</v>
       </c>
@@ -1747,13 +1897,19 @@
         <v>151</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>150</v>
       </c>
@@ -1769,8 +1925,14 @@
       <c r="E20" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -1786,8 +1948,14 @@
       <c r="E21" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>150</v>
       </c>
@@ -1803,8 +1971,14 @@
       <c r="E22" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>150</v>
       </c>
@@ -1820,8 +1994,14 @@
       <c r="E23" s="10" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>150</v>
       </c>
@@ -1837,8 +2017,14 @@
       <c r="E24" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>150</v>
       </c>
@@ -1854,8 +2040,14 @@
       <c r="E25" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>150</v>
       </c>
@@ -1869,8 +2061,12 @@
         <v>47</v>
       </c>
       <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>150</v>
       </c>
@@ -1884,8 +2080,12 @@
         <v>5</v>
       </c>
       <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>150</v>
       </c>
@@ -1899,8 +2099,12 @@
         <v>47</v>
       </c>
       <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>150</v>
       </c>
@@ -1912,8 +2116,12 @@
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
@@ -1923,14 +2131,20 @@
       <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>150</v>
       </c>
@@ -1940,14 +2154,20 @@
       <c r="C31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>150</v>
       </c>
@@ -1957,14 +2177,20 @@
       <c r="C32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>150</v>
       </c>
@@ -1974,14 +2200,20 @@
       <c r="C33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>150</v>
       </c>
@@ -1991,14 +2223,20 @@
       <c r="C34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>150</v>
       </c>
@@ -2008,14 +2246,20 @@
       <c r="C35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>150</v>
       </c>
@@ -2025,28 +2269,229 @@
       <c r="C36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="32" t="s">
         <v>47</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:E21" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:F21" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:E20" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:F20 G48" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D17:E17" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F38 D38:E39 D17:F17" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D24:E28 D22:E22 D13:E13 D18:E18" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D22:F22 D13:F13 D18:F18 D24:F28" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D12:E12" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D12:F12" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
@@ -2063,7 +2508,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2242,7 +2687,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2256,7 +2701,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2269,7 +2714,9 @@
       <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">

--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eAppAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:100000_{C521E8ED-2246-41FE-B687-0BCE3A6B9341}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0985A85-666A-48EC-8F95-F6A443438923}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4160" windowWidth="16200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
-    <sheet name="TestData" r:id="rId2" sheetId="2"/>
-    <sheet name="TestData (2)" r:id="rId3" sheetId="4"/>
-    <sheet name="ListValues" r:id="rId4" sheetId="3"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="TestData (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="ListValues" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="190">
   <si>
     <t>SLNo</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Client Name</t>
   </si>
   <si>
-    <t>CT10005346</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -604,13 +601,21 @@
   </si>
   <si>
     <t>Underwriting Class Quoted</t>
+  </si>
+  <si>
+    <t>CT10009229</t>
+  </si>
+  <si>
+    <t>Left Navigation</t>
+  </si>
+  <si>
+    <t>CT10009656</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,85 +736,90 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -826,10 +836,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -864,7 +874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -916,7 +926,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1027,21 +1037,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1058,7 +1068,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1110,25 +1120,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1172,7 +1182,7 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1188,29 +1198,29 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C5" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.81640625" collapsed="true"/>
+    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1224,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="43.5" r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -1459,49 +1469,49 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:C7" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>P_Suffix</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:C8" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:C13" type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:C13" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:C16" type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:C16" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:C17" type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:C17" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:C3" type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>P_PlanofInsurance</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="2"/>
-      <selection activeCell="G42" pane="bottomLeft" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="7" bestFit="true" customWidth="true" width="38.453125" collapsed="true"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -2283,41 +2293,41 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="G38" s="33" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2325,14 +2335,17 @@
       <c r="A39" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B39" t="s">
-        <v>176</v>
+      <c r="B39" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G39" s="10" t="s">
         <v>153</v>
       </c>
@@ -2347,6 +2360,9 @@
       <c r="C40" t="s">
         <v>154</v>
       </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
       <c r="G40" s="10" t="s">
         <v>153</v>
       </c>
@@ -2362,7 +2378,7 @@
         <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2370,13 +2386,16 @@
         <v>178</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="34" t="s">
-        <v>178</v>
+      <c r="F42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2387,49 +2406,59 @@
         <v>179</v>
       </c>
       <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
         <v>154</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" t="s">
-        <v>185</v>
-      </c>
       <c r="C45" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B46" t="s">
-        <v>186</v>
+      <c r="B46" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>182</v>
+      </c>
+      <c r="F46" t="s">
+        <v>153</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>5</v>
@@ -2440,13 +2469,16 @@
         <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>153</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2454,13 +2486,16 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>160</v>
+      </c>
+      <c r="F48" t="s">
+        <v>153</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2468,44 +2503,81 @@
         <v>173</v>
       </c>
       <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
         <v>176</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="35" t="s">
-        <v>180</v>
+      <c r="F51" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:F21" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:F21" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:F20 G48" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:F20 F50:G50" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F38 D38:E39 D17:F17" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:F39 D17:F17" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D22:F22 D13:F13 D18:F18 D24:F28" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:F22 D13:F13 D18:F18 D24:F28" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D12:F12" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:F12" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -2513,11 +2585,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -2687,7 +2759,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2715,7 +2787,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2996,6 +3068,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eAppAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F0985A85-666A-48EC-8F95-F6A443438923}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01083BB0-C1A6-400E-8EF2-54B4AF4A3AD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="191">
   <si>
     <t>SLNo</t>
   </si>
@@ -564,9 +564,6 @@
     <t>Getting Started</t>
   </si>
   <si>
-    <t>END</t>
-  </si>
-  <si>
     <t>Next</t>
   </si>
   <si>
@@ -609,7 +606,13 @@
     <t>Left Navigation</t>
   </si>
   <si>
-    <t>CT10009656</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>CT10009657</t>
+  </si>
+  <si>
+    <t>Proposed Insured's Gender is missing.</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1135,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +1185,7 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1190,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -1498,11 +1501,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42:G43"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,7 +1514,8 @@
     <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="35.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1553,7 +1557,7 @@
         <v>169</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1843,8 +1847,8 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="16" t="s">
-        <v>153</v>
+      <c r="F16" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>153</v>
@@ -2292,42 +2296,38 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="34" t="s">
+      <c r="C37" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="G38" s="33" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="G37" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2335,16 +2335,14 @@
       <c r="A39" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>46</v>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>153</v>
@@ -2352,75 +2350,75 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F40" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
-        <v>155</v>
+      <c r="A41" t="s">
+        <v>177</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
         <v>153</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" t="s">
         <v>152</v>
       </c>
       <c r="F42" t="s">
         <v>153</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
         <v>178</v>
       </c>
-      <c r="B43" t="s">
-        <v>179</v>
-      </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
         <v>153</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
         <v>154</v>
@@ -2428,40 +2426,40 @@
       <c r="F44" t="s">
         <v>153</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>187</v>
-      </c>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="B45" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F45" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" t="s">
         <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
         <v>153</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2478,7 +2476,7 @@
         <v>153</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2486,16 +2484,16 @@
         <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F48" t="s">
         <v>153</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2506,13 +2504,13 @@
         <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" t="s">
-        <v>153</v>
+        <v>180</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2520,44 +2518,90 @@
         <v>173</v>
       </c>
       <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="38" t="s">
         <v>186</v>
-      </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B51" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="G51" s="38" t="s">
+      <c r="B51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>187</v>
       </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:F21" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:F20 F50:G50" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:F20 F49:G49" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:F39 D17:F17" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:F38 D17:F17" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:F22 D13:F13 D18:F18 D24:F28" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
@@ -2759,7 +2803,7 @@
         <v>38</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2787,7 +2831,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">

--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eAppAutomation\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01083BB0-C1A6-400E-8EF2-54B4AF4A3AD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{952C6304-7F56-40D7-A7D6-B087F07F9890}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="4160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="4160" windowWidth="16200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
-    <sheet name="TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="TestData (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="ListValues" sheetId="3" r:id="rId4"/>
+    <sheet name="TestCase" r:id="rId1" sheetId="1"/>
+    <sheet name="TestData" r:id="rId2" sheetId="2"/>
+    <sheet name="TestData (2)" r:id="rId3" sheetId="4"/>
+    <sheet name="ListValues" r:id="rId4" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="P_Country">ListValues!$D$2:$D$24</definedName>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="193">
   <si>
     <t>SLNo</t>
   </si>
@@ -613,12 +613,19 @@
   </si>
   <si>
     <t>Proposed Insured's Gender is missing.</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,90 +746,98 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="47">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="4">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal_OLI_LU_NATION" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal_OLI_LUEXT_SUFFIX" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_Sheet4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -839,10 +854,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -877,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -929,7 +944,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1040,21 +1055,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1071,7 +1086,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1123,25 +1138,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1163,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1196,34 +1211,34 @@
         <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C5" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1237,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -1472,50 +1487,50 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:C7" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>P_Suffix</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C8" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B8:C8" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:C9 B14:C15 B18:C18 B20:C24" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:C13" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:C13" type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:C16" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16:C16" type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:C17" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B17:C17" type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B3:C3" type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>P_PlanofInsurance</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F2985-23B5-4103-BDA8-163FD22005C0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41:G42"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
+      <selection activeCell="D37" pane="bottomLeft" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.36328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.36328125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1845,9 +1860,11 @@
       <c r="C16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="37" t="s">
+      <c r="D16" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="29" t="s">
         <v>188</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -2145,13 +2162,13 @@
       <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -2168,13 +2185,13 @@
       <c r="C31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -2191,13 +2208,13 @@
       <c r="C32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G32" s="10" t="s">
@@ -2214,13 +2231,13 @@
       <c r="C33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G33" s="10" t="s">
@@ -2237,13 +2254,13 @@
       <c r="C34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -2260,13 +2277,13 @@
       <c r="C35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G35" s="10" t="s">
@@ -2283,32 +2300,34 @@
       <c r="C36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="33" t="s">
+    <row customFormat="1" r="37" s="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="G37" s="33" t="s">
+      <c r="D37" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="G37" s="25" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2523,10 +2542,10 @@
       <c r="C50" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="30" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2594,34 +2613,34 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:F21" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
+  <dataValidations count="6" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D21:F21" type="list" xr:uid="{63BF2A67-F2B3-4C32-A201-03503A960558}">
       <formula1>P_Frequency</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:F20 F49:G49" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D20:F20 F49:G49" type="list" xr:uid="{94FFB3B2-D830-4E80-8C74-1F62E2705CEC}">
       <formula1>P_UWClass</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:F38 D17:F17" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D38:F38 D17:F17" type="list" xr:uid="{9E71B626-1F3E-4FB0-8918-E2EBF903A19C}">
       <formula1>P_Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:F22 D13:F13 D18:F18 D24:F28" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D22:F22 D13:F13 D18:F18 D24:F28" type="list" xr:uid="{F815C3B6-49CC-4934-9685-0B640082F958}">
       <formula1>P_Yes_No</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:F12" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D12:F12" type="list" xr:uid="{91BC0295-88CC-4EF7-AE5C-056C624E6EB5}">
       <formula1>P_States</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3:C1048576" type="list" xr:uid="{21814D12-6B4D-41CC-BDC0-E0E585335FE7}">
       <formula1>Step</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -2629,11 +2648,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -3112,6 +3131,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test Case/eApp Test Data.xlsx
+++ b/Test Case/eApp Test Data.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="193">
   <si>
     <t>SLNo</t>
   </si>
@@ -752,7 +752,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -820,6 +820,14 @@
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1860,7 +1868,7 @@
       <c r="C16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="47" t="s">
         <v>191</v>
       </c>
       <c r="E16" s="17"/>
@@ -2162,7 +2170,7 @@
       <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="18" t="s">
@@ -2185,7 +2193,7 @@
       <c r="C31" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -2208,7 +2216,7 @@
       <c r="C32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="50" t="s">
         <v>166</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -2231,7 +2239,7 @@
       <c r="C33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="51" t="s">
         <v>167</v>
       </c>
       <c r="E33" s="21" t="s">
@@ -2254,7 +2262,7 @@
       <c r="C34" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -2277,7 +2285,7 @@
       <c r="C35" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="53" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="23" t="s">
@@ -2300,7 +2308,7 @@
       <c r="C36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="54" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="24" t="s">
